--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.02551633333333</v>
+        <v>22.82060766666666</v>
       </c>
       <c r="H2">
-        <v>66.076549</v>
+        <v>68.461823</v>
       </c>
       <c r="I2">
-        <v>0.1074664165847192</v>
+        <v>0.10869226337084</v>
       </c>
       <c r="J2">
-        <v>0.1074664165847192</v>
+        <v>0.1086922633708401</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.123436</v>
+        <v>12.86269466666666</v>
       </c>
       <c r="N2">
-        <v>39.370308</v>
+        <v>38.58808399999999</v>
       </c>
       <c r="O2">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="P2">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="Q2">
-        <v>289.0504539674546</v>
+        <v>293.5345085241257</v>
       </c>
       <c r="R2">
-        <v>2601.454085707092</v>
+        <v>2641.810576717131</v>
       </c>
       <c r="S2">
-        <v>0.01642318710903346</v>
+        <v>0.01454118862898526</v>
       </c>
       <c r="T2">
-        <v>0.01642318710903347</v>
+        <v>0.01454118862898526</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.02551633333333</v>
+        <v>22.82060766666666</v>
       </c>
       <c r="H3">
-        <v>66.076549</v>
+        <v>68.461823</v>
       </c>
       <c r="I3">
-        <v>0.1074664165847192</v>
+        <v>0.10869226337084</v>
       </c>
       <c r="J3">
-        <v>0.1074664165847192</v>
+        <v>0.1086922633708401</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>103.640041</v>
       </c>
       <c r="O3">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="P3">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="Q3">
-        <v>760.9084719442787</v>
+        <v>788.3762380727492</v>
       </c>
       <c r="R3">
-        <v>6848.176247498509</v>
+        <v>7095.386142654742</v>
       </c>
       <c r="S3">
-        <v>0.04323308279251713</v>
+        <v>0.03905478659414047</v>
       </c>
       <c r="T3">
-        <v>0.04323308279251713</v>
+        <v>0.03905478659414047</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.02551633333333</v>
+        <v>22.82060766666666</v>
       </c>
       <c r="H4">
-        <v>66.076549</v>
+        <v>68.461823</v>
       </c>
       <c r="I4">
-        <v>0.1074664165847192</v>
+        <v>0.10869226337084</v>
       </c>
       <c r="J4">
-        <v>0.1074664165847192</v>
+        <v>0.1086922633708401</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.12064766666666</v>
+        <v>18.65324433333334</v>
       </c>
       <c r="N4">
-        <v>45.361943</v>
+        <v>55.95973300000001</v>
       </c>
       <c r="O4">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="P4">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="Q4">
-        <v>333.0400721527452</v>
+        <v>425.6783706414732</v>
       </c>
       <c r="R4">
-        <v>2997.360649374707</v>
+        <v>3831.105335773259</v>
       </c>
       <c r="S4">
-        <v>0.01892257681901575</v>
+        <v>0.0210873655499623</v>
       </c>
       <c r="T4">
-        <v>0.01892257681901576</v>
+        <v>0.0210873655499623</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.02551633333333</v>
+        <v>22.82060766666666</v>
       </c>
       <c r="H5">
-        <v>66.076549</v>
+        <v>68.461823</v>
       </c>
       <c r="I5">
-        <v>0.1074664165847192</v>
+        <v>0.10869226337084</v>
       </c>
       <c r="J5">
-        <v>0.1074664165847192</v>
+        <v>0.1086922633708401</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.902825333333333</v>
+        <v>7.643308666666666</v>
       </c>
       <c r="N5">
-        <v>20.708476</v>
+        <v>22.929926</v>
       </c>
       <c r="O5">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="P5">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="Q5">
-        <v>152.0382921254804</v>
+        <v>174.4249483572331</v>
       </c>
       <c r="R5">
-        <v>1368.344629129324</v>
+        <v>1569.824535215098</v>
       </c>
       <c r="S5">
-        <v>0.008638468769178256</v>
+        <v>0.008640708339255026</v>
       </c>
       <c r="T5">
-        <v>0.008638468769178256</v>
+        <v>0.008640708339255027</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.02551633333333</v>
+        <v>22.82060766666666</v>
       </c>
       <c r="H6">
-        <v>66.076549</v>
+        <v>68.461823</v>
       </c>
       <c r="I6">
-        <v>0.1074664165847192</v>
+        <v>0.10869226337084</v>
       </c>
       <c r="J6">
-        <v>0.1074664165847192</v>
+        <v>0.1086922633708401</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.18064633333333</v>
+        <v>22.43995333333334</v>
       </c>
       <c r="N6">
-        <v>48.541939</v>
+        <v>67.31986000000001</v>
       </c>
       <c r="O6">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="P6">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="Q6">
-        <v>356.3870900987234</v>
+        <v>512.0933710783089</v>
       </c>
       <c r="R6">
-        <v>3207.483810888511</v>
+        <v>4608.84033970478</v>
       </c>
       <c r="S6">
-        <v>0.02024910109497463</v>
+        <v>0.02536821425849699</v>
       </c>
       <c r="T6">
-        <v>0.02024910109497463</v>
+        <v>0.025368214258497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>507.673492</v>
       </c>
       <c r="I7">
-        <v>0.825676458682658</v>
+        <v>0.8059992924649123</v>
       </c>
       <c r="J7">
-        <v>0.825676458682658</v>
+        <v>0.8059992924649124</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.123436</v>
+        <v>12.86269466666666</v>
       </c>
       <c r="N7">
-        <v>39.370308</v>
+        <v>38.58808399999999</v>
       </c>
       <c r="O7">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="P7">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="Q7">
-        <v>2220.806860386171</v>
+        <v>2176.683039318814</v>
       </c>
       <c r="R7">
-        <v>19987.26174347554</v>
+        <v>19590.14735386932</v>
       </c>
       <c r="S7">
-        <v>0.1261811773706948</v>
+        <v>0.1078290890546055</v>
       </c>
       <c r="T7">
-        <v>0.1261811773706948</v>
+        <v>0.1078290890546055</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>507.673492</v>
       </c>
       <c r="I8">
-        <v>0.825676458682658</v>
+        <v>0.8059992924649123</v>
       </c>
       <c r="J8">
-        <v>0.825676458682658</v>
+        <v>0.8059992924649124</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>103.640041</v>
       </c>
       <c r="O8">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="P8">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="Q8">
         <v>5846.144613943687</v>
@@ -948,10 +948,10 @@
         <v>52615.30152549317</v>
       </c>
       <c r="S8">
-        <v>0.3321645946007604</v>
+        <v>0.2896078284325277</v>
       </c>
       <c r="T8">
-        <v>0.3321645946007604</v>
+        <v>0.2896078284325277</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>507.673492</v>
       </c>
       <c r="I9">
-        <v>0.825676458682658</v>
+        <v>0.8059992924649123</v>
       </c>
       <c r="J9">
-        <v>0.825676458682658</v>
+        <v>0.8059992924649124</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.12064766666666</v>
+        <v>18.65324433333334</v>
       </c>
       <c r="N9">
-        <v>45.361943</v>
+        <v>55.95973300000001</v>
       </c>
       <c r="O9">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="P9">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="Q9">
-        <v>2558.784000746106</v>
+        <v>3156.585895944183</v>
       </c>
       <c r="R9">
-        <v>23029.05600671496</v>
+        <v>28409.27306349764</v>
       </c>
       <c r="S9">
-        <v>0.1453842671376191</v>
+        <v>0.1563717709624803</v>
       </c>
       <c r="T9">
-        <v>0.1453842671376191</v>
+        <v>0.1563717709624803</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>507.673492</v>
       </c>
       <c r="I10">
-        <v>0.825676458682658</v>
+        <v>0.8059992924649123</v>
       </c>
       <c r="J10">
-        <v>0.825676458682658</v>
+        <v>0.8059992924649124</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.902825333333333</v>
+        <v>7.643308666666666</v>
       </c>
       <c r="N10">
-        <v>20.708476</v>
+        <v>22.929926</v>
       </c>
       <c r="O10">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="P10">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="Q10">
-        <v>1168.127147213133</v>
+        <v>1293.435067080177</v>
       </c>
       <c r="R10">
-        <v>10513.14432491819</v>
+        <v>11640.91560372159</v>
       </c>
       <c r="S10">
-        <v>0.06637031854647353</v>
+        <v>0.06407452188270125</v>
       </c>
       <c r="T10">
-        <v>0.06637031854647353</v>
+        <v>0.06407452188270127</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>507.673492</v>
       </c>
       <c r="I11">
-        <v>0.825676458682658</v>
+        <v>0.8059992924649123</v>
       </c>
       <c r="J11">
-        <v>0.825676458682658</v>
+        <v>0.8059992924649124</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.18064633333333</v>
+        <v>22.43995333333334</v>
       </c>
       <c r="N11">
-        <v>48.541939</v>
+        <v>67.31986000000001</v>
       </c>
       <c r="O11">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="P11">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="Q11">
-        <v>2738.161742286776</v>
+        <v>3797.389823016792</v>
       </c>
       <c r="R11">
-        <v>24643.45568058099</v>
+        <v>34176.50840715112</v>
       </c>
       <c r="S11">
-        <v>0.1555761010271102</v>
+        <v>0.1881160821325976</v>
       </c>
       <c r="T11">
-        <v>0.1555761010271102</v>
+        <v>0.1881160821325977</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.273094333333334</v>
+        <v>4.587340666666667</v>
       </c>
       <c r="H12">
-        <v>15.819283</v>
+        <v>13.762022</v>
       </c>
       <c r="I12">
-        <v>0.02572836630662366</v>
+        <v>0.02184904307528146</v>
       </c>
       <c r="J12">
-        <v>0.02572836630662366</v>
+        <v>0.02184904307528146</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.123436</v>
+        <v>12.86269466666666</v>
       </c>
       <c r="N12">
-        <v>39.370308</v>
+        <v>38.58808399999999</v>
       </c>
       <c r="O12">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="P12">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="Q12">
-        <v>69.20111600546267</v>
+        <v>59.00556232731644</v>
       </c>
       <c r="R12">
-        <v>622.810044049164</v>
+        <v>531.0500609458479</v>
       </c>
       <c r="S12">
-        <v>0.003931849477183686</v>
+        <v>0.002923032853189507</v>
       </c>
       <c r="T12">
-        <v>0.003931849477183686</v>
+        <v>0.002923032853189507</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.273094333333334</v>
+        <v>4.587340666666667</v>
       </c>
       <c r="H13">
-        <v>15.819283</v>
+        <v>13.762022</v>
       </c>
       <c r="I13">
-        <v>0.02572836630662366</v>
+        <v>0.02184904307528146</v>
       </c>
       <c r="J13">
-        <v>0.02572836630662366</v>
+        <v>0.02184904307528146</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>103.640041</v>
       </c>
       <c r="O13">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="P13">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="Q13">
-        <v>182.1679043011781</v>
+        <v>158.4773915914336</v>
       </c>
       <c r="R13">
-        <v>1639.511138710603</v>
+        <v>1426.296524322902</v>
       </c>
       <c r="S13">
-        <v>0.01035036456969414</v>
+        <v>0.007850694135238938</v>
       </c>
       <c r="T13">
-        <v>0.01035036456969414</v>
+        <v>0.007850694135238938</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.273094333333334</v>
+        <v>4.587340666666667</v>
       </c>
       <c r="H14">
-        <v>15.819283</v>
+        <v>13.762022</v>
       </c>
       <c r="I14">
-        <v>0.02572836630662366</v>
+        <v>0.02184904307528146</v>
       </c>
       <c r="J14">
-        <v>0.02572836630662366</v>
+        <v>0.02184904307528146</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.12064766666666</v>
+        <v>18.65324433333334</v>
       </c>
       <c r="N14">
-        <v>45.361943</v>
+        <v>55.95973300000001</v>
       </c>
       <c r="O14">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="P14">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="Q14">
-        <v>79.73260152742989</v>
+        <v>85.56878629556958</v>
       </c>
       <c r="R14">
-        <v>717.5934137468689</v>
+        <v>770.1190766601261</v>
       </c>
       <c r="S14">
-        <v>0.004530224449059076</v>
+        <v>0.00423892873288845</v>
       </c>
       <c r="T14">
-        <v>0.004530224449059077</v>
+        <v>0.00423892873288845</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.273094333333334</v>
+        <v>4.587340666666667</v>
       </c>
       <c r="H15">
-        <v>15.819283</v>
+        <v>13.762022</v>
       </c>
       <c r="I15">
-        <v>0.02572836630662366</v>
+        <v>0.02184904307528146</v>
       </c>
       <c r="J15">
-        <v>0.02572836630662366</v>
+        <v>0.02184904307528146</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.902825333333333</v>
+        <v>7.643308666666666</v>
       </c>
       <c r="N15">
-        <v>20.708476</v>
+        <v>22.929926</v>
       </c>
       <c r="O15">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="P15">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="Q15">
-        <v>36.39924914918978</v>
+        <v>35.06246067448578</v>
       </c>
       <c r="R15">
-        <v>327.593242342708</v>
+        <v>315.562146070372</v>
       </c>
       <c r="S15">
-        <v>0.00206812226447075</v>
+        <v>0.00173693327243727</v>
       </c>
       <c r="T15">
-        <v>0.002068122264470751</v>
+        <v>0.00173693327243727</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.273094333333334</v>
+        <v>4.587340666666667</v>
       </c>
       <c r="H16">
-        <v>15.819283</v>
+        <v>13.762022</v>
       </c>
       <c r="I16">
-        <v>0.02572836630662366</v>
+        <v>0.02184904307528146</v>
       </c>
       <c r="J16">
-        <v>0.02572836630662366</v>
+        <v>0.02184904307528146</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.18064633333333</v>
+        <v>22.43995333333334</v>
       </c>
       <c r="N16">
-        <v>48.541939</v>
+        <v>67.31986000000001</v>
       </c>
       <c r="O16">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="P16">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="Q16">
-        <v>85.32207448997077</v>
+        <v>102.9397104841022</v>
       </c>
       <c r="R16">
-        <v>767.8986704097371</v>
+        <v>926.4573943569201</v>
       </c>
       <c r="S16">
-        <v>0.004847805546216005</v>
+        <v>0.005099454081527297</v>
       </c>
       <c r="T16">
-        <v>0.004847805546216006</v>
+        <v>0.005099454081527298</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.714833666666667</v>
+        <v>4.896139</v>
       </c>
       <c r="H17">
-        <v>8.144501</v>
+        <v>14.688417</v>
       </c>
       <c r="I17">
-        <v>0.01324615692839319</v>
+        <v>0.02331981853689061</v>
       </c>
       <c r="J17">
-        <v>0.01324615692839319</v>
+        <v>0.02331981853689062</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.123436</v>
+        <v>12.86269466666666</v>
       </c>
       <c r="N17">
-        <v>39.370308</v>
+        <v>38.58808399999999</v>
       </c>
       <c r="O17">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="P17">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="Q17">
-        <v>35.62794587514534</v>
+        <v>62.97754100255865</v>
       </c>
       <c r="R17">
-        <v>320.651512876308</v>
+        <v>566.7978690230279</v>
       </c>
       <c r="S17">
-        <v>0.002024298572746439</v>
+        <v>0.0031197977631737</v>
       </c>
       <c r="T17">
-        <v>0.002024298572746439</v>
+        <v>0.003119797763173701</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.714833666666667</v>
+        <v>4.896139</v>
       </c>
       <c r="H18">
-        <v>8.144501</v>
+        <v>14.688417</v>
       </c>
       <c r="I18">
-        <v>0.01324615692839319</v>
+        <v>0.02331981853689061</v>
       </c>
       <c r="J18">
-        <v>0.01324615692839319</v>
+        <v>0.02331981853689062</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>103.640041</v>
       </c>
       <c r="O18">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="P18">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="Q18">
-        <v>93.78849084050456</v>
+        <v>169.1453489005663</v>
       </c>
       <c r="R18">
-        <v>844.096417564541</v>
+        <v>1522.308140105097</v>
       </c>
       <c r="S18">
-        <v>0.005328848000774655</v>
+        <v>0.008379166171791028</v>
       </c>
       <c r="T18">
-        <v>0.005328848000774655</v>
+        <v>0.00837916617179103</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.714833666666667</v>
+        <v>4.896139</v>
       </c>
       <c r="H19">
-        <v>8.144501</v>
+        <v>14.688417</v>
       </c>
       <c r="I19">
-        <v>0.01324615692839319</v>
+        <v>0.02331981853689061</v>
       </c>
       <c r="J19">
-        <v>0.01324615692839319</v>
+        <v>0.02331981853689062</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.12064766666666</v>
+        <v>18.65324433333334</v>
       </c>
       <c r="N19">
-        <v>45.361943</v>
+        <v>55.95973300000001</v>
       </c>
       <c r="O19">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="P19">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="Q19">
-        <v>41.05004334727144</v>
+        <v>91.32887705696234</v>
       </c>
       <c r="R19">
-        <v>369.450390125443</v>
+        <v>821.9598935126611</v>
       </c>
       <c r="S19">
-        <v>0.002332369776530712</v>
+        <v>0.004524273603250101</v>
       </c>
       <c r="T19">
-        <v>0.002332369776530712</v>
+        <v>0.004524273603250101</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.714833666666667</v>
+        <v>4.896139</v>
       </c>
       <c r="H20">
-        <v>8.144501</v>
+        <v>14.688417</v>
       </c>
       <c r="I20">
-        <v>0.01324615692839319</v>
+        <v>0.02331981853689061</v>
       </c>
       <c r="J20">
-        <v>0.01324615692839319</v>
+        <v>0.02331981853689062</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.902825333333333</v>
+        <v>7.643308666666666</v>
       </c>
       <c r="N20">
-        <v>20.708476</v>
+        <v>22.929926</v>
       </c>
       <c r="O20">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="P20">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="Q20">
-        <v>18.74002261005289</v>
+        <v>37.42270165190466</v>
       </c>
       <c r="R20">
-        <v>168.660203490476</v>
+        <v>336.804314867142</v>
       </c>
       <c r="S20">
-        <v>0.001064765315286685</v>
+        <v>0.001853855502246198</v>
       </c>
       <c r="T20">
-        <v>0.001064765315286685</v>
+        <v>0.001853855502246198</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.714833666666667</v>
+        <v>4.896139</v>
       </c>
       <c r="H21">
-        <v>8.144501</v>
+        <v>14.688417</v>
       </c>
       <c r="I21">
-        <v>0.01324615692839319</v>
+        <v>0.02331981853689061</v>
       </c>
       <c r="J21">
-        <v>0.01324615692839319</v>
+        <v>0.02331981853689062</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>16.18064633333333</v>
+        <v>22.43995333333334</v>
       </c>
       <c r="N21">
-        <v>48.541939</v>
+        <v>67.31986000000001</v>
       </c>
       <c r="O21">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="P21">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="Q21">
-        <v>43.92776341415988</v>
+        <v>109.8691306735133</v>
       </c>
       <c r="R21">
-        <v>395.349870727439</v>
+        <v>988.82217606162</v>
       </c>
       <c r="S21">
-        <v>0.002495875263054703</v>
+        <v>0.005442725496429589</v>
       </c>
       <c r="T21">
-        <v>0.002495875263054703</v>
+        <v>0.00544272549642959</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.714610333333333</v>
+        <v>8.427551666666668</v>
       </c>
       <c r="H22">
-        <v>17.143831</v>
+        <v>25.282655</v>
       </c>
       <c r="I22">
-        <v>0.02788260149760581</v>
+        <v>0.04013958255207557</v>
       </c>
       <c r="J22">
-        <v>0.02788260149760581</v>
+        <v>0.04013958255207558</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>13.123436</v>
+        <v>12.86269466666666</v>
       </c>
       <c r="N22">
-        <v>39.370308</v>
+        <v>38.58808399999999</v>
       </c>
       <c r="O22">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="P22">
-        <v>0.1528215756229904</v>
+        <v>0.1337831063410017</v>
       </c>
       <c r="Q22">
-        <v>74.99532297443866</v>
+        <v>108.4010238758911</v>
       </c>
       <c r="R22">
-        <v>674.957906769948</v>
+        <v>975.6092148830199</v>
       </c>
       <c r="S22">
-        <v>0.004261063093332072</v>
+        <v>0.005369998041047743</v>
       </c>
       <c r="T22">
-        <v>0.004261063093332073</v>
+        <v>0.005369998041047744</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.714610333333333</v>
+        <v>8.427551666666668</v>
       </c>
       <c r="H23">
-        <v>17.143831</v>
+        <v>25.282655</v>
       </c>
       <c r="I23">
-        <v>0.02788260149760581</v>
+        <v>0.04013958255207557</v>
       </c>
       <c r="J23">
-        <v>0.02788260149760581</v>
+        <v>0.04013958255207558</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>103.640041</v>
       </c>
       <c r="O23">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="P23">
-        <v>0.4022938901888023</v>
+        <v>0.3593152390330854</v>
       </c>
       <c r="Q23">
-        <v>197.4208164152301</v>
+        <v>291.143933420984</v>
       </c>
       <c r="R23">
-        <v>1776.787347737071</v>
+        <v>2620.295400788855</v>
       </c>
       <c r="S23">
-        <v>0.01121700022505597</v>
+        <v>0.0144227636993873</v>
       </c>
       <c r="T23">
-        <v>0.01121700022505597</v>
+        <v>0.0144227636993873</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.714610333333333</v>
+        <v>8.427551666666668</v>
       </c>
       <c r="H24">
-        <v>17.143831</v>
+        <v>25.282655</v>
       </c>
       <c r="I24">
-        <v>0.02788260149760581</v>
+        <v>0.04013958255207557</v>
       </c>
       <c r="J24">
-        <v>0.02788260149760581</v>
+        <v>0.04013958255207558</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.12064766666666</v>
+        <v>18.65324433333334</v>
       </c>
       <c r="N24">
-        <v>45.361943</v>
+        <v>55.95973300000001</v>
       </c>
       <c r="O24">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="P24">
-        <v>0.1760789781624335</v>
+        <v>0.1940098117012772</v>
       </c>
       <c r="Q24">
-        <v>86.40860940262587</v>
+        <v>157.201180370124</v>
       </c>
       <c r="R24">
-        <v>777.6774846236328</v>
+        <v>1414.810623331115</v>
       </c>
       <c r="S24">
-        <v>0.004909539980208768</v>
+        <v>0.007787472852696052</v>
       </c>
       <c r="T24">
-        <v>0.004909539980208768</v>
+        <v>0.007787472852696053</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.714610333333333</v>
+        <v>8.427551666666668</v>
       </c>
       <c r="H25">
-        <v>17.143831</v>
+        <v>25.282655</v>
       </c>
       <c r="I25">
-        <v>0.02788260149760581</v>
+        <v>0.04013958255207557</v>
       </c>
       <c r="J25">
-        <v>0.02788260149760581</v>
+        <v>0.04013958255207558</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.902825333333333</v>
+        <v>7.643308666666666</v>
       </c>
       <c r="N25">
-        <v>20.708476</v>
+        <v>22.929926</v>
       </c>
       <c r="O25">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="P25">
-        <v>0.08038296096314212</v>
+        <v>0.07949699519803316</v>
       </c>
       <c r="Q25">
-        <v>39.44695697906177</v>
+        <v>64.41437869261445</v>
       </c>
       <c r="R25">
-        <v>355.022612811556</v>
+        <v>579.72940823353</v>
       </c>
       <c r="S25">
-        <v>0.002241286067732896</v>
+        <v>0.003190976201393407</v>
       </c>
       <c r="T25">
-        <v>0.002241286067732896</v>
+        <v>0.003190976201393408</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.714610333333333</v>
+        <v>8.427551666666668</v>
       </c>
       <c r="H26">
-        <v>17.143831</v>
+        <v>25.282655</v>
       </c>
       <c r="I26">
-        <v>0.02788260149760581</v>
+        <v>0.04013958255207557</v>
       </c>
       <c r="J26">
-        <v>0.02788260149760581</v>
+        <v>0.04013958255207558</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>16.18064633333333</v>
+        <v>22.43995333333334</v>
       </c>
       <c r="N26">
-        <v>48.541939</v>
+        <v>67.31986000000001</v>
       </c>
       <c r="O26">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="P26">
-        <v>0.1884225950626316</v>
+        <v>0.2333948477266026</v>
       </c>
       <c r="Q26">
-        <v>92.46608873647877</v>
+        <v>189.1138661142556</v>
       </c>
       <c r="R26">
-        <v>832.1947986283089</v>
+        <v>1702.0247950283</v>
       </c>
       <c r="S26">
-        <v>0.005253712131276106</v>
+        <v>0.009368371757551073</v>
       </c>
       <c r="T26">
-        <v>0.005253712131276106</v>
+        <v>0.009368371757551074</v>
       </c>
     </row>
   </sheetData>
